--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>537479.4916017825</v>
+        <v>506850.5914291599</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W2" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,13 +1260,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>109.4481656569157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1391,7 +1391,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>146.1932996118735</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1470,7 +1470,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>62.52515684565924</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,25 +1847,25 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1944,7 +1944,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V18" t="n">
-        <v>35.74905915623028</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,22 +2087,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>55.57566235103572</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>154.0983192341214</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,64 +2236,64 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>83.29299802259976</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,25 +2637,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>92.72704515543269</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>3.26531605719669</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>131.7659851933074</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3080,16 +3080,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3168,13 +3168,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
     </row>
     <row r="34">
@@ -3196,43 +3196,43 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3266,16 +3266,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>84.0572199420196</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>145.8040758417443</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3658,61 +3658,61 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3782,22 +3782,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3819,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>17.38540584383043</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>157.0936159469526</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3904,64 +3904,64 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,67 +3974,67 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G44" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>84.56713651463427</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4364,7 +4364,7 @@
         <v>132.7447050367114</v>
       </c>
       <c r="V2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W2" t="n">
         <v>19.28114311021272</v>
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.8876260635219</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4601,16 +4601,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
         <v>730.8505943024719</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4893,13 +4893,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C11" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D11" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E11" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C12" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5215,22 +5215,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
         <v>19.28114311021272</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C14" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D14" t="n">
-        <v>274.7999090013961</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E14" t="n">
-        <v>274.7999090013961</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F14" t="n">
-        <v>274.7999090013961</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X14" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y14" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5358,19 +5358,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>900.9004314241117</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>900.9004314241117</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>698.7138367828777</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>470.4902185192667</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>470.4902185192667</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="16">
@@ -5452,25 +5452,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F17" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C18" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D18" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E18" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F18" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,7 +5601,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5625,19 +5625,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V18" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W18" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X18" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y18" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="19">
@@ -5707,7 +5707,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>470.5814199598456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>262.6529395526377</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>103.4154845471822</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="28">
@@ -6418,16 +6418,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6503,10 +6503,10 @@
         <v>752.9257720901863</v>
       </c>
       <c r="X29" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="Y29" t="n">
         <v>509.4769954460863</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>152.3780978509273</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6543,16 +6543,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>152.3780978509273</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>152.3780978509273</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6652,7 +6652,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6804,22 +6804,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>933.9571464551993</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
         <v>829.5248650203655</v>
@@ -6880,28 +6880,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,13 +7017,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>879.1508727409195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>705.7335281915883</v>
+        <v>816.780311226046</v>
       </c>
       <c r="T36" t="n">
-        <v>705.7335281915883</v>
+        <v>614.593716584812</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="37">
@@ -7117,16 +7117,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7208,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7260,37 +7260,37 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X39" t="n">
         <v>19.28114311021272</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C41" t="n">
-        <v>231.8830517671884</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D41" t="n">
-        <v>231.8830517671884</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E41" t="n">
         <v>231.8830517671884</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>577.1531170985884</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C42" t="n">
-        <v>577.1531170985884</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D42" t="n">
-        <v>577.1531170985884</v>
+        <v>36.84215911408185</v>
       </c>
       <c r="E42" t="n">
-        <v>417.9156620931329</v>
+        <v>36.84215911408185</v>
       </c>
       <c r="F42" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7494,10 +7494,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>805.3767353621993</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>805.3767353621993</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>577.1531170985884</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V42" t="n">
-        <v>577.1531170985884</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W42" t="n">
-        <v>577.1531170985884</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X42" t="n">
-        <v>577.1531170985884</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y42" t="n">
-        <v>577.1531170985884</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
         <v>829.5248650203655</v>
@@ -7609,10 +7609,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C44" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D44" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E44" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y44" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7840,16 +7840,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,16 +8541,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9249,10 +9249,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9483,22 +9483,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,13 +9966,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -10203,7 +10203,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>233.6791982203443</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,10 +10917,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22604,10 +22604,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W2" t="n">
-        <v>236.9120424101793</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22686,13 +22686,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22726,7 +22726,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>68.60374760888197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22790,19 +22790,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22841,16 +22841,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22863,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23100,25 +23100,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,13 +23148,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>116.4932164240591</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23176,13 +23176,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23258,16 +23258,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>363.4633956979714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>26.51519937644221</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23358,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23473,7 +23473,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23498,22 +23498,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,10 +23537,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>185.9018423672239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>120.497718190637</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.63267730698389</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23704,7 +23704,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23735,25 +23735,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23792,10 +23792,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23823,7 +23823,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23832,7 +23832,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,10 +23865,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V18" t="n">
-        <v>197.051527993195</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23947,10 +23947,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,13 +24054,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>170.3657197299391</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>51.67466596935603</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,10 +24206,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24263,16 +24263,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>317.3055321907214</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24288,13 +24288,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>61.77621437078412</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24333,22 +24333,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>36.26901108812098</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>123.6874957598917</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24403,10 +24403,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24506,10 +24506,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,25 +24525,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>54.71802040920606</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,19 +24570,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>136.2759056302994</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,10 +24692,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.9726225988569</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>40.94251379500832</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24892,10 +24892,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24968,16 +24968,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25044,10 +25044,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>100.9443125299447</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25154,16 +25154,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25239,7 +25239,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,22 +25278,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>16.10061421062353</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>25.87909526209353</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25397,7 +25397,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25533,7 +25533,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,13 +25628,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>149.0972843361114</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,22 +25670,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>276.0301037921574</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25707,22 +25707,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>127.6838065495535</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,10 +25755,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>14.58955515688524</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,16 +25874,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25913,16 +25913,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>276.0301037921574</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,16 +25998,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26080,7 +26080,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481985.0402310077</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="14">
@@ -26314,13 +26314,13 @@
         <v>116312.4707719327</v>
       </c>
       <c r="C2" t="n">
-        <v>116312.4707719326</v>
+        <v>116312.4707719327</v>
       </c>
       <c r="D2" t="n">
         <v>116312.4707719327</v>
       </c>
       <c r="E2" t="n">
-        <v>116312.4707719327</v>
+        <v>116312.4707719328</v>
       </c>
       <c r="F2" t="n">
         <v>116312.4707719327</v>
@@ -26341,7 +26341,7 @@
         <v>116312.4707719327</v>
       </c>
       <c r="L2" t="n">
-        <v>116312.4707719327</v>
+        <v>116312.4707719326</v>
       </c>
       <c r="M2" t="n">
         <v>116312.4707719327</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25992.10353926569</v>
+        <v>-29652.91916435753</v>
       </c>
       <c r="C6" t="n">
-        <v>54777.32799228194</v>
+        <v>51116.51236719017</v>
       </c>
       <c r="D6" t="n">
-        <v>54777.327992282</v>
+        <v>51116.51236719021</v>
       </c>
       <c r="E6" t="n">
-        <v>88404.927992282</v>
+        <v>84744.11236719025</v>
       </c>
       <c r="F6" t="n">
-        <v>88404.927992282</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="G6" t="n">
-        <v>88404.927992282</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="H6" t="n">
-        <v>88404.927992282</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="I6" t="n">
-        <v>88404.927992282</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="J6" t="n">
-        <v>25344.98539317575</v>
+        <v>21684.16976808394</v>
       </c>
       <c r="K6" t="n">
-        <v>88404.92799228197</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="L6" t="n">
-        <v>88404.92799228197</v>
+        <v>84744.11236719013</v>
       </c>
       <c r="M6" t="n">
-        <v>88404.927992282</v>
+        <v>84744.11236719014</v>
       </c>
       <c r="N6" t="n">
-        <v>88404.92799228197</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="O6" t="n">
-        <v>88404.927992282</v>
+        <v>84744.11236719014</v>
       </c>
       <c r="P6" t="n">
-        <v>88404.927992282</v>
+        <v>84744.11236719022</v>
       </c>
     </row>
   </sheetData>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35261,16 +35261,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35969,10 +35969,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N18" t="n">
         <v>91.0829537758999</v>
-      </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,13 +36686,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>91.0829537758999</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37628,7 +37628,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37637,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37862,13 +37862,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
